--- a/biology/Zoologie/James_Henry_Emerton/James_Henry_Emerton.xlsx
+++ b/biology/Zoologie/James_Henry_Emerton/James_Henry_Emerton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Henry Emerton est un naturaliste américain, né le 31 mars 1847 à Salem dans le Massachusetts et mort le 5 décembre 1930 à Boston.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Passionné très jeune par l’histoire naturelle, il fréquente à 15 ans l’Essex Institute, institution regroupant un muséum et une bibliothèque fondée en 1821. Là, il fréquente des naturalistes comme Alpheus Spring Packard (1839-1905), Frederic Ward Putnam (1839-1915), Caleb Cooke (1838-1880), John Robinson (1846-1925) et bien d'autres. Le jeune Emerton, bien qu'il n'ait jamais pris de cours de dessin, se fait connaître par la qualité de ses illustrations de plantes et d’animaux, notamment des insectes.
 En 1868, il se sent assez sûr de lui pour faire paraître une annonce dans The American Naturalist où il propose ses services comme illustrateur naturaliste. A.S. Packard utilise d'ailleurs ses talents pour participer à l'illustration de Guide to the Study of Insects ainsi que Sereno Watson (1826-1892) et Amos Eaton (1776-1842) pour leur Botany of the Fortieth Parallel.
